--- a/steamcase/article/articlealertcase.xlsx
+++ b/steamcase/article/articlealertcase.xlsx
@@ -50,10 +50,6 @@
     <t>actualResult</t>
   </si>
   <si>
-    <t>新增一个文章正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"code":"000000"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,10 @@
   <si>
     <t>preInterfaceAddOneArticle
 tearInterfaceDelOneArticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文章正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,25 +514,25 @@
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/article/articlealertcase.xlsx
+++ b/steamcase/article/articlealertcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD3B2E68-C98E-48A4-80EC-924ACFF123BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -54,12 +55,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>testArticleAlertNor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media_alert_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-media/media/updateMedia-article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceAddOneArticle
+tearInterfaceDelOneArticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文章正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"title": "奥林匹克大赛2017年12月北京赛区-自动化"
 "subtitle": "奥林匹克大赛2017年12月北京赛区-副标题-自动化"
 "content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;方法&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
 "cornerMask": "花絮"
 "vendorId": 1
-"baseVisits": "1"
+"baseVisits": 1
 "baseCollects": 1
 "shareTitle": "奥林匹克大赛2017年12月北京赛区-分享标题-自动化"
 "thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180420161204_726874.png"
@@ -70,35 +92,14 @@
 "entryIds": [64]
 "matchId": 20
 "resourceTypeId": 2
-"state": "00"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArticleAlertNor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>media_alert_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-media/media/updateMedia-article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preInterfaceAddOneArticle
-tearInterfaceDelOneArticle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改文章正常</t>
+"state": "A"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,22 +515,22 @@
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/article/articlealertcase.xlsx
+++ b/steamcase/article/articlealertcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD3B2E68-C98E-48A4-80EC-924ACFF123BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08444E75-F063-4C9C-BD15-457C24964AB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>caseid</t>
   </si>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>media_alert_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-media/media/updateMedia-article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,6 +89,38 @@
 "matchId": 20
 "resourceTypeId": 2
 "state": "A"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-media/media/updateMedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改一个作品视频正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "奥林匹克大赛2017年12月北京赛区-自动化"
+"subtitle": "奥林匹克大赛2017年12月北京赛区-副标题-自动化"
+"content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;方法&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
+"cornerMask": "花絮"
+"vendorId": 1
+"baseVisits": 1
+"baseCollects": 1
+"shareTitle": "奥林匹克大赛2017年12月北京赛区-分享标题-自动化"
+"thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180420161204_726874.png"
+"bannerUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180420161213_347806.jpg"
+"shareDescription": "分享标题-自动化"
+"shareImgUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180+F20420161228_57360.png"
+"tags": [2]
+"entryIds": [64]
+"matchId": 20
+"resourceTypeId": 1
+"state": "A"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_alert_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,26 +541,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/article/articlealertcase.xlsx
+++ b/steamcase/article/articlealertcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08444E75-F063-4C9C-BD15-457C24964AB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3A30D12-5237-4F8C-815D-3AB02C02F678}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/steam-media/media/updateMedia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改一个作品视频正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,10 @@
   </si>
   <si>
     <t>article_alert_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation-manage/media/updateMedia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -569,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
